--- a/data.xlsx
+++ b/data.xlsx
@@ -437,13 +437,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -705,6 +705,70 @@
       </c>
       <c r="J8" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
